--- a/test/final_results.xlsx
+++ b/test/final_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Om Nagvekar\OneDrive\Documents\KIT Assaignment &amp; Notes&amp; ISRO\Intel Unnati\Business Contract Validation\Final Project\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB7DE0-B958-491F-B2FF-B32861CEB9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439113C9-6D5C-43EB-84BC-B045CD63033A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>user_input</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Business_Contract_Clause_Standard_Evaluation</t>
-  </si>
-  <si>
-    <t>context_recall</t>
   </si>
   <si>
     <t>faithfulness</t>
@@ -726,15 +723,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,22 +762,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -789,68 +783,62 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.81098420513943881</v>
       </c>
       <c r="I2">
-        <v>0.81098420513943881</v>
+        <v>0.87923235367851094</v>
       </c>
       <c r="J2">
-        <v>0.87923235367851094</v>
-      </c>
-      <c r="K2">
         <v>0.21980808841962771</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.82366827320654556</v>
+      </c>
+      <c r="I3">
+        <v>0.88932825208150634</v>
+      </c>
+      <c r="J3">
+        <v>0.47233206302037661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.82366827320654556</v>
-      </c>
-      <c r="J3">
-        <v>0.88932825208150634</v>
-      </c>
-      <c r="K3">
-        <v>0.47233206302037661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -862,170 +850,155 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.85977891050835797</v>
       </c>
       <c r="I4">
-        <v>0.85977891050835797</v>
+        <v>0.83247027562171305</v>
       </c>
       <c r="J4">
-        <v>0.83247027562171305</v>
-      </c>
-      <c r="K4">
         <v>0.20811756890542829</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.53</v>
+      </c>
+      <c r="H5">
+        <v>0.83871600874835706</v>
+      </c>
+      <c r="I5">
+        <v>0.8890665860497089</v>
+      </c>
+      <c r="J5">
+        <v>0.56842049266627337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.53</v>
-      </c>
-      <c r="I5">
-        <v>0.83871600874835706</v>
-      </c>
-      <c r="J5">
-        <v>0.8890665860497089</v>
-      </c>
-      <c r="K5">
-        <v>0.56842049266627337</v>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.38</v>
+      </c>
+      <c r="H6">
+        <v>0.82635140017131514</v>
+      </c>
+      <c r="I6">
+        <v>0.85726024794275857</v>
+      </c>
+      <c r="J6">
+        <v>0.21431506198568959</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.38</v>
-      </c>
-      <c r="I6">
-        <v>0.82635140017131514</v>
-      </c>
-      <c r="J6">
-        <v>0.85726024794275857</v>
-      </c>
-      <c r="K6">
-        <v>0.21431506198568959</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>0.82005700120854019</v>
+      </c>
+      <c r="I7">
+        <v>0.92861302346352503</v>
+      </c>
+      <c r="J7">
+        <v>0.53215325586588125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.8</v>
-      </c>
-      <c r="I7">
-        <v>0.82005700120854019</v>
-      </c>
-      <c r="J7">
-        <v>0.92861302346352503</v>
-      </c>
-      <c r="K7">
-        <v>0.53215325586588125</v>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.85246530510209917</v>
+      </c>
+      <c r="I8">
+        <v>0.91490899812637938</v>
+      </c>
+      <c r="J8">
+        <v>0.63781815862250391</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8">
-        <v>0.85246530510209917</v>
-      </c>
-      <c r="J8">
-        <v>0.91490899812637938</v>
-      </c>
-      <c r="K8">
-        <v>0.63781815862250391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1034,68 +1007,62 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H9">
-        <v>0.18</v>
+        <v>0.81674789123837455</v>
       </c>
       <c r="I9">
-        <v>0.81674789123837455</v>
+        <v>0.84650568675990023</v>
       </c>
       <c r="J9">
-        <v>0.84650568675990023</v>
-      </c>
-      <c r="K9">
         <v>0.37829308835664183</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.81720404482148445</v>
+      </c>
+      <c r="I10">
+        <v>0.87286284336156461</v>
+      </c>
+      <c r="J10">
+        <v>0.29716307926144381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0.81720404482148445</v>
-      </c>
-      <c r="J10">
-        <v>0.87286284336156461</v>
-      </c>
-      <c r="K10">
-        <v>0.29716307926144381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,15 +1074,12 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.82809058904086685</v>
       </c>
       <c r="I11">
-        <v>0.82809058904086685</v>
+        <v>0.90388165981560065</v>
       </c>
       <c r="J11">
-        <v>0.90388165981560065</v>
-      </c>
-      <c r="K11">
         <v>0.52597041495390018</v>
       </c>
     </row>
